--- a/orcamento-lanhouse.xlsx
+++ b/orcamento-lanhouse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADM\Documents\Desenvolvimento\Web\AW\Projeto OMC e AW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8D411E-E34E-4597-A2ED-B57F34C36FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F38605E-1549-45F5-B4C1-5E9473E88270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
